--- a/data/trans_orig/P33_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>274940</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>248289</v>
+        <v>248238</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>304980</v>
+        <v>304738</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2697269591522315</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.243581228334537</v>
+        <v>0.2435313076935311</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2991969043663398</v>
+        <v>0.2989595361612378</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>434</v>
@@ -765,19 +765,19 @@
         <v>449465</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>414190</v>
+        <v>418253</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>487261</v>
+        <v>487376</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3435256163427889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3165645837673827</v>
+        <v>0.3196702011493416</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3724127461363902</v>
+        <v>0.3725010721461227</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>714</v>
@@ -786,19 +786,19 @@
         <v>724405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>678706</v>
+        <v>681276</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>766241</v>
+        <v>770171</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3112085247141197</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2915757859449315</v>
+        <v>0.2926800688278688</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.329181425228781</v>
+        <v>0.3308697426146396</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>744388</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>714348</v>
+        <v>714590</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>771039</v>
+        <v>771090</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7302730408477686</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7008030956336601</v>
+        <v>0.7010404638387621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.756418771665463</v>
+        <v>0.7564686923064688</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>850</v>
@@ -836,19 +836,19 @@
         <v>858924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>821128</v>
+        <v>821013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>894199</v>
+        <v>890136</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6564743836572111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6275872538636098</v>
+        <v>0.6274989278538772</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6834354162326169</v>
+        <v>0.6803297988506584</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1597</v>
@@ -857,19 +857,19 @@
         <v>1603312</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1561476</v>
+        <v>1557546</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1649011</v>
+        <v>1646441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6887914752858803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.670818574771219</v>
+        <v>0.6691302573853602</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7084242140550683</v>
+        <v>0.7073199311721311</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>233768</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208437</v>
+        <v>204659</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>267448</v>
+        <v>264341</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1403724864507633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1251614403309177</v>
+        <v>0.1228930549055401</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1605965464136209</v>
+        <v>0.1587305532270845</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>270</v>
@@ -982,19 +982,19 @@
         <v>278916</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250095</v>
+        <v>249421</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>310791</v>
+        <v>312638</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1772840424139431</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1589649902911509</v>
+        <v>0.1585361086893781</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1975444866250819</v>
+        <v>0.1987183954466939</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>493</v>
@@ -1003,19 +1003,19 @@
         <v>512685</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>469552</v>
+        <v>469235</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>558449</v>
+        <v>556750</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1583035907478847</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1449854385503382</v>
+        <v>0.1448875994761664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1724343925531857</v>
+        <v>0.1719097559119667</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1431575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1397895</v>
+        <v>1401002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1456906</v>
+        <v>1460684</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8596275135492367</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.839403453586379</v>
+        <v>0.8412694467729156</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8748385596690823</v>
+        <v>0.8771069450944599</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1270</v>
@@ -1053,19 +1053,19 @@
         <v>1294357</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1262482</v>
+        <v>1260635</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1323178</v>
+        <v>1323852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8227159575860569</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8024555133749178</v>
+        <v>0.8012816045533061</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8410350097088489</v>
+        <v>0.8414638913106219</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2666</v>
@@ -1074,19 +1074,19 @@
         <v>2725932</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2680168</v>
+        <v>2681867</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2769065</v>
+        <v>2769382</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8416964092521153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8275656074468144</v>
+        <v>0.8280902440880332</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8550145614496624</v>
+        <v>0.8551124005238336</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>89670</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72635</v>
+        <v>71765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108477</v>
+        <v>109859</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.164552298682909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1332919452409436</v>
+        <v>0.1316951992033301</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.199064484957528</v>
+        <v>0.2016011501964182</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1199,19 +1199,19 @@
         <v>78618</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62829</v>
+        <v>63589</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96373</v>
+        <v>96735</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1653465481365291</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1321393602548971</v>
+        <v>0.133737576609489</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2026883148241325</v>
+        <v>0.2034484427643761</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>158</v>
@@ -1220,19 +1220,19 @@
         <v>168288</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>144634</v>
+        <v>146227</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>193790</v>
+        <v>191926</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1649223914923527</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1417410874132428</v>
+        <v>0.1433021582708089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1899139115714411</v>
+        <v>0.1880872400828438</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>455264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>436457</v>
+        <v>435075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>472299</v>
+        <v>473169</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.835447701317091</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8009355150424724</v>
+        <v>0.7983988498035818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8667080547590564</v>
+        <v>0.8683048007966698</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>376</v>
@@ -1270,19 +1270,19 @@
         <v>396858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>379103</v>
+        <v>378741</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>412647</v>
+        <v>411887</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.834653451863471</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7973116851758675</v>
+        <v>0.7965515572356239</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.867860639745103</v>
+        <v>0.8662624233905111</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>813</v>
@@ -1291,19 +1291,19 @@
         <v>852121</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>826619</v>
+        <v>828483</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>875775</v>
+        <v>874182</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8350776085076473</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8100860884285589</v>
+        <v>0.8119127599171563</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8582589125867571</v>
+        <v>0.8566978417291911</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>598379</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>553978</v>
+        <v>556464</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>642240</v>
+        <v>647685</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1852792309361111</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1715312854670004</v>
+        <v>0.1723010670209636</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1988603181519982</v>
+        <v>0.200546115789403</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>779</v>
@@ -1416,19 +1416,19 @@
         <v>807000</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>754157</v>
+        <v>758332</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>857349</v>
+        <v>859358</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2403832234786688</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2246427540935662</v>
+        <v>0.2258865220161908</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2553810262365986</v>
+        <v>0.2559794162515445</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1365</v>
@@ -1437,19 +1437,19 @@
         <v>1405378</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1336874</v>
+        <v>1337847</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1474211</v>
+        <v>1472305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2133646904423134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2029643550504572</v>
+        <v>0.2031120857314236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2238148681723865</v>
+        <v>0.2235254337148921</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2631226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2587365</v>
+        <v>2581920</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2675627</v>
+        <v>2673141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8147207690638889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8011396818480018</v>
+        <v>0.799453884210597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8284687145329995</v>
+        <v>0.8276989329790363</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2496</v>
@@ -1487,19 +1487,19 @@
         <v>2550138</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2499789</v>
+        <v>2497780</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2602981</v>
+        <v>2598806</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7596167765213312</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7446189737634016</v>
+        <v>0.7440205837484555</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7753572459064338</v>
+        <v>0.7741134779838093</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5076</v>
@@ -1508,19 +1508,19 @@
         <v>5181365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5112532</v>
+        <v>5114438</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5249869</v>
+        <v>5248896</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7866353095576866</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7761851318276137</v>
+        <v>0.7764745662851082</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7970356449495428</v>
+        <v>0.7968879142685767</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>336091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>306026</v>
+        <v>306750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365583</v>
+        <v>366951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.346774750102833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3157543591368704</v>
+        <v>0.3165011186555898</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3772051131427308</v>
+        <v>0.3786160102938004</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>543</v>
@@ -1872,19 +1872,19 @@
         <v>579793</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>541304</v>
+        <v>541585</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>618596</v>
+        <v>617171</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4343962288839541</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4055595274015102</v>
+        <v>0.4057703333197962</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.463469044574671</v>
+        <v>0.4624009002874169</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>855</v>
@@ -1893,19 +1893,19 @@
         <v>915883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>870085</v>
+        <v>868017</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>962397</v>
+        <v>962984</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3975361671641288</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3776575396008009</v>
+        <v>0.3767601538847462</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4177254026899628</v>
+        <v>0.4179801117895955</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>633099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>603607</v>
+        <v>602239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>663164</v>
+        <v>662440</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.653225249897167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6227948868572694</v>
+        <v>0.6213839897061998</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6842456408631297</v>
+        <v>0.6834988813444104</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>701</v>
@@ -1943,19 +1943,19 @@
         <v>754916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>716113</v>
+        <v>717538</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>793405</v>
+        <v>793124</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5656037711160459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.536530955425329</v>
+        <v>0.537599099712583</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5944404725984898</v>
+        <v>0.5942296666802037</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1292</v>
@@ -1964,19 +1964,19 @@
         <v>1388016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1341502</v>
+        <v>1340915</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1433814</v>
+        <v>1435882</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6024638328358711</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5822745973100372</v>
+        <v>0.5820198882104045</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6223424603991986</v>
+        <v>0.6232398461152538</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>436755</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>399904</v>
+        <v>399128</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>472659</v>
+        <v>473528</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2232680429896493</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2044299297481305</v>
+        <v>0.204033240108656</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2416219590548646</v>
+        <v>0.2420664758126659</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>447</v>
@@ -2089,19 +2089,19 @@
         <v>487282</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>448472</v>
+        <v>449465</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>522259</v>
+        <v>527341</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2782021890571974</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.256044340488214</v>
+        <v>0.256611246116587</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2981715979138722</v>
+        <v>0.3010729632604693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>861</v>
@@ -2110,19 +2110,19 @@
         <v>924037</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>873745</v>
+        <v>870891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>978315</v>
+        <v>975246</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2492190388458462</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2356549337997001</v>
+        <v>0.2348852177724753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2638583150544951</v>
+        <v>0.2630304502888668</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1519436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1483532</v>
+        <v>1482663</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1556287</v>
+        <v>1557063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7767319570103508</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7583780409451354</v>
+        <v>0.7579335241873342</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7955700702518695</v>
+        <v>0.795966759891344</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1182</v>
@@ -2160,19 +2160,19 @@
         <v>1264257</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1229280</v>
+        <v>1224198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1303067</v>
+        <v>1302074</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7217978109428026</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7018284020861277</v>
+        <v>0.6989270367395307</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7439556595117859</v>
+        <v>0.7433887538834134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2617</v>
@@ -2181,19 +2181,19 @@
         <v>2783693</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2729415</v>
+        <v>2732484</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2833985</v>
+        <v>2836839</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7507809611541538</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7361416849455048</v>
+        <v>0.7369695497111329</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7643450662002998</v>
+        <v>0.765114782227524</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>108662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91048</v>
+        <v>90054</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130077</v>
+        <v>128370</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2258226856630419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1892183204646364</v>
+        <v>0.1871525989722831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2703283807620862</v>
+        <v>0.2667805638683742</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -2306,19 +2306,19 @@
         <v>86686</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70700</v>
+        <v>69522</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104928</v>
+        <v>105268</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1890113385119502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1541551738643785</v>
+        <v>0.1515854161243622</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2287850623972085</v>
+        <v>0.2295267524902827</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -2327,19 +2327,19 @@
         <v>195348</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>168565</v>
+        <v>170214</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219761</v>
+        <v>223444</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2078586473823896</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1793599954687047</v>
+        <v>0.1811148370794779</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2338344976806766</v>
+        <v>0.2377535387854358</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>372519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>351104</v>
+        <v>352811</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>390133</v>
+        <v>391127</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7741773143369581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7296716192379138</v>
+        <v>0.7332194361316258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8107816795353627</v>
+        <v>0.8128474010277169</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>332</v>
@@ -2377,19 +2377,19 @@
         <v>371945</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>353703</v>
+        <v>353363</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>387931</v>
+        <v>389109</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8109886614880498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7712149376027913</v>
+        <v>0.7704732475097172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.845844826135621</v>
+        <v>0.8484145838756376</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>674</v>
@@ -2398,19 +2398,19 @@
         <v>744465</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>720052</v>
+        <v>716369</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>771248</v>
+        <v>769599</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7921413526176104</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7661655023193233</v>
+        <v>0.7622464612145642</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8206400045312953</v>
+        <v>0.8188851629205222</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>881507</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>827667</v>
+        <v>831112</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>940255</v>
+        <v>933353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2587673824979404</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2429626170315691</v>
+        <v>0.2439738614788572</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2760127719947122</v>
+        <v>0.2739867405556211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1070</v>
@@ -2523,19 +2523,19 @@
         <v>1153761</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1096909</v>
+        <v>1100595</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1209574</v>
+        <v>1210874</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.32547261119222</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3094347123532504</v>
+        <v>0.3104746279282943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3412171693778079</v>
+        <v>0.3415840510926192</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1892</v>
@@ -2544,19 +2544,19 @@
         <v>2035268</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1957571</v>
+        <v>1957481</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2113883</v>
+        <v>2117166</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.292783630244436</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.28160645352052</v>
+        <v>0.2815935033057879</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3040927231917376</v>
+        <v>0.3045649775180993</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2525056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2466308</v>
+        <v>2473210</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2578896</v>
+        <v>2575451</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7412326175020596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7239872280052881</v>
+        <v>0.726013259444379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7570373829684311</v>
+        <v>0.7560261385211428</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2215</v>
@@ -2594,19 +2594,19 @@
         <v>2391118</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2335305</v>
+        <v>2334005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2447970</v>
+        <v>2444284</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.67452738880778</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6587828306221921</v>
+        <v>0.6584159489073808</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6905652876467496</v>
+        <v>0.6895253720717056</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4583</v>
@@ -2615,19 +2615,19 @@
         <v>4916174</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4837559</v>
+        <v>4834276</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4993871</v>
+        <v>4993961</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.707216369755564</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6959072768082624</v>
+        <v>0.6954350224819007</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7183935464794799</v>
+        <v>0.7184064966942119</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>222842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>199190</v>
+        <v>202131</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>248359</v>
+        <v>247381</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2961984334359076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2647608527049388</v>
+        <v>0.2686694691836484</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.330115984348371</v>
+        <v>0.328816040130857</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>345</v>
@@ -2979,19 +2979,19 @@
         <v>395032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>362001</v>
+        <v>363376</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>426069</v>
+        <v>425730</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4005979188186173</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3671008796953282</v>
+        <v>0.3684959535262716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4320718101815532</v>
+        <v>0.4317280568841497</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>575</v>
@@ -3000,19 +3000,19 @@
         <v>617874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>576667</v>
+        <v>579388</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>661560</v>
+        <v>664421</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.355417417497721</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.331713900671482</v>
+        <v>0.3332789328565943</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3805466387245015</v>
+        <v>0.3821923564530307</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>529498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>503981</v>
+        <v>504959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>553150</v>
+        <v>550209</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7038015665640924</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.669884015651629</v>
+        <v>0.6711839598691431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7352391472950612</v>
+        <v>0.7313305308163516</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>540</v>
@@ -3050,19 +3050,19 @@
         <v>591075</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>560038</v>
+        <v>560377</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>624106</v>
+        <v>622731</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5994020811813827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5679281898184469</v>
+        <v>0.5682719431158502</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.632899120304672</v>
+        <v>0.6315040464737282</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1070</v>
@@ -3071,19 +3071,19 @@
         <v>1120573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1076887</v>
+        <v>1074026</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1161780</v>
+        <v>1159059</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6445825825022791</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6194533612754984</v>
+        <v>0.6178076435469694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6682860993285177</v>
+        <v>0.6667210671434057</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>446845</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>407921</v>
+        <v>410040</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>483376</v>
+        <v>486695</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2156979194157192</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1969085791522807</v>
+        <v>0.1979317283391304</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.233331613776225</v>
+        <v>0.2349338440622749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>460</v>
@@ -3196,19 +3196,19 @@
         <v>492508</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>452866</v>
+        <v>453248</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>529894</v>
+        <v>533994</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2484513845060209</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.228453460613456</v>
+        <v>0.2286458232699258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2673108799590025</v>
+        <v>0.2693794065416205</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>873</v>
@@ -3217,19 +3217,19 @@
         <v>939354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>889827</v>
+        <v>886470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>996586</v>
+        <v>1000417</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2317138574659419</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2194970251276367</v>
+        <v>0.2186689764182317</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2458315827292497</v>
+        <v>0.2467766351563512</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1624780</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1588249</v>
+        <v>1584930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1663704</v>
+        <v>1661585</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7843020805842807</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.766668386223775</v>
+        <v>0.7650661559377251</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8030914208477191</v>
+        <v>0.8020682716608696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1442</v>
@@ -3267,19 +3267,19 @@
         <v>1489805</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1452419</v>
+        <v>1448319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1529447</v>
+        <v>1529065</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.751548615493979</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7326891200409975</v>
+        <v>0.7306205934583795</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7715465393865442</v>
+        <v>0.7713541767300741</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2977</v>
@@ -3288,19 +3288,19 @@
         <v>3114584</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3057352</v>
+        <v>3053521</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3164111</v>
+        <v>3167468</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7682861425340581</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7541684172707501</v>
+        <v>0.7532233648436487</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7805029748723633</v>
+        <v>0.7813310235817682</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>113897</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>95605</v>
+        <v>94541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135194</v>
+        <v>134316</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2082646194254679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1748175490858245</v>
+        <v>0.1728719133631134</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2472078240336705</v>
+        <v>0.2456017436719284</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>110</v>
@@ -3413,19 +3413,19 @@
         <v>117333</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98408</v>
+        <v>97910</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136138</v>
+        <v>138226</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2136664917243436</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1792033495540971</v>
+        <v>0.1782970186415599</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2479117511063309</v>
+        <v>0.2517131863296032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>211</v>
@@ -3434,19 +3434,19 @@
         <v>231230</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>204094</v>
+        <v>204925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>259644</v>
+        <v>266322</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2109711104556383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1862130066140566</v>
+        <v>0.186970923771124</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2368959067480552</v>
+        <v>0.2429888982165652</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>432989</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>411692</v>
+        <v>412570</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451281</v>
+        <v>452345</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7917353805745321</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7527921759663293</v>
+        <v>0.7543982563280716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8251824509141753</v>
+        <v>0.8271280866368865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>416</v>
@@ -3484,19 +3484,19 @@
         <v>431807</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>413002</v>
+        <v>410914</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>450732</v>
+        <v>451230</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7863335082756564</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7520882488936692</v>
+        <v>0.7482868136703967</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8207966504459028</v>
+        <v>0.8217029813584401</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>816</v>
@@ -3505,19 +3505,19 @@
         <v>864797</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>836383</v>
+        <v>829705</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>891933</v>
+        <v>891102</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7890288895443617</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7631040932519451</v>
+        <v>0.7570111017834349</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8137869933859435</v>
+        <v>0.8130290762288761</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>783584</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>735586</v>
+        <v>732981</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>838423</v>
+        <v>830429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2324588474349625</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2182197190698582</v>
+        <v>0.2174468896924254</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2487273525044024</v>
+        <v>0.2463557642793072</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>915</v>
@@ -3630,19 +3630,19 @@
         <v>1004874</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>947418</v>
+        <v>953838</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1063390</v>
+        <v>1063134</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2856734880828589</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2693394497691051</v>
+        <v>0.2711647166254705</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3023087659937013</v>
+        <v>0.3022362548703854</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1659</v>
@@ -3651,19 +3651,19 @@
         <v>1788458</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1710356</v>
+        <v>1715111</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1861640</v>
+        <v>1858659</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2596328498212591</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2482946709725793</v>
+        <v>0.2489849603130063</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2702567387874124</v>
+        <v>0.2698240209360014</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2587268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2532429</v>
+        <v>2540423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2635266</v>
+        <v>2637871</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7675411525650375</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7512726474955973</v>
+        <v>0.7536442357206926</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7817802809301417</v>
+        <v>0.7825531103075746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2398</v>
@@ -3701,19 +3701,19 @@
         <v>2512687</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2454171</v>
+        <v>2454427</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2570143</v>
+        <v>2563723</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7143265119171411</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6976912340062983</v>
+        <v>0.6977637451296146</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7306605502308948</v>
+        <v>0.7288352833745293</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4863</v>
@@ -3722,19 +3722,19 @@
         <v>5099955</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5026773</v>
+        <v>5029754</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5178057</v>
+        <v>5173302</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7403671501787409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7297432612125876</v>
+        <v>0.7301759790639987</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7517053290274207</v>
+        <v>0.7510150396869938</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>181474</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>161117</v>
+        <v>161039</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>203198</v>
+        <v>202070</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3233403074140118</v>
+        <v>0.3233403074140117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2870682204708179</v>
+        <v>0.2869290340367662</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3620465280935222</v>
+        <v>0.3600358330187006</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>568</v>
@@ -4086,19 +4086,19 @@
         <v>312774</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>291395</v>
+        <v>291514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>333332</v>
+        <v>333870</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3979312740378764</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3707315203956899</v>
+        <v>0.3708828215123094</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4240857983469399</v>
+        <v>0.4247698726980866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>801</v>
@@ -4107,19 +4107,19 @@
         <v>494249</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>466601</v>
+        <v>466012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>522598</v>
+        <v>525961</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3668575168616356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3463360153928097</v>
+        <v>0.3458983963113967</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.387899579424323</v>
+        <v>0.3903957711722141</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>379775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>358051</v>
+        <v>359179</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>400132</v>
+        <v>400210</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6766596925859883</v>
+        <v>0.6766596925859882</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6379534719064778</v>
+        <v>0.6399641669812997</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7129317795291819</v>
+        <v>0.7130709659632337</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>799</v>
@@ -4157,19 +4157,19 @@
         <v>473227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>452669</v>
+        <v>452131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>494606</v>
+        <v>494487</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6020687259621235</v>
+        <v>0.6020687259621237</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5759142016530598</v>
+        <v>0.5752301273019134</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.62926847960431</v>
+        <v>0.6291171784876907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1239</v>
@@ -4178,19 +4178,19 @@
         <v>853001</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>824652</v>
+        <v>821289</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>880649</v>
+        <v>881238</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6331424831383645</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6121004205756769</v>
+        <v>0.609604228827786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6536639846071903</v>
+        <v>0.6541016036886033</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>500185</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>455524</v>
+        <v>458954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>542011</v>
+        <v>542344</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2322546651459199</v>
+        <v>0.2322546651459198</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2115168579428925</v>
+        <v>0.2131092366843029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2516760372410916</v>
+        <v>0.2518303136973727</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>919</v>
@@ -4303,19 +4303,19 @@
         <v>598248</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>560563</v>
+        <v>563246</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>636382</v>
+        <v>636207</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2844094398119851</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.266493518668899</v>
+        <v>0.267769306918239</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3025382989985291</v>
+        <v>0.302454973233891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1434</v>
@@ -4324,19 +4324,19 @@
         <v>1098434</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1046286</v>
+        <v>1044232</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1154114</v>
+        <v>1154915</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2580249686600939</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2457752838768457</v>
+        <v>0.2452928893566187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2711044187591529</v>
+        <v>0.2712923951921785</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1653422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1611596</v>
+        <v>1611263</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1698083</v>
+        <v>1694653</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7677453348540801</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.748323962758908</v>
+        <v>0.7481696863026273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7884831420571075</v>
+        <v>0.7868907633156969</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1918</v>
@@ -4374,19 +4374,19 @@
         <v>1505228</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1467094</v>
+        <v>1467269</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1542913</v>
+        <v>1540230</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7155905601880149</v>
+        <v>0.7155905601880148</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.697461701001471</v>
+        <v>0.6975450267661089</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.733506481331101</v>
+        <v>0.7322306930817611</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3351</v>
@@ -4395,19 +4395,19 @@
         <v>3158650</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3102970</v>
+        <v>3102169</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3210798</v>
+        <v>3212852</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7419750313399059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7288955812408471</v>
+        <v>0.7287076048078214</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7542247161231543</v>
+        <v>0.7547071106433811</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>157141</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>135417</v>
+        <v>132193</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182643</v>
+        <v>183503</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2239916850754765</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1930251141830863</v>
+        <v>0.1884301048897442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2603419343345867</v>
+        <v>0.2615677300957115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>294</v>
@@ -4520,19 +4520,19 @@
         <v>200659</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>179931</v>
+        <v>179040</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>221231</v>
+        <v>224009</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2756118978389691</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2471418253636253</v>
+        <v>0.2459182004728898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3038676934703042</v>
+        <v>0.3076833227392505</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>450</v>
@@ -4541,19 +4541,19 @@
         <v>357800</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>326445</v>
+        <v>326407</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>389383</v>
+        <v>390937</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2502802212015303</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2283470668489136</v>
+        <v>0.2283207104990738</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2723724061286657</v>
+        <v>0.2734595923186681</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>544408</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>518906</v>
+        <v>518046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>566132</v>
+        <v>569356</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7760083149245234</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7396580656654133</v>
+        <v>0.7384322699042885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8069748858169138</v>
+        <v>0.8115698951102556</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>700</v>
@@ -4591,19 +4591,19 @@
         <v>527390</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>506818</v>
+        <v>504040</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548118</v>
+        <v>549009</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7243881021610308</v>
+        <v>0.7243881021610309</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6961323065296956</v>
+        <v>0.6923166772607496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7528581746363747</v>
+        <v>0.7540817995271103</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1216</v>
@@ -4612,19 +4612,19 @@
         <v>1071798</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1040215</v>
+        <v>1038661</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1103153</v>
+        <v>1103191</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7497197787984698</v>
+        <v>0.7497197787984697</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7276275938713342</v>
+        <v>0.7265404076813319</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7716529331510865</v>
+        <v>0.7716792895009262</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>838801</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>787176</v>
+        <v>787080</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>893355</v>
+        <v>893094</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2455214931305739</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2304104535857239</v>
+        <v>0.2303824895824458</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.261489598534814</v>
+        <v>0.2614132842125299</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1781</v>
@@ -4737,19 +4737,19 @@
         <v>1111682</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1067822</v>
+        <v>1067059</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1158680</v>
+        <v>1164745</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3073044305488104</v>
+        <v>0.3073044305488103</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2951802773181387</v>
+        <v>0.2949693200307627</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.320296250027346</v>
+        <v>0.3219728344143525</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2685</v>
@@ -4758,19 +4758,19 @@
         <v>1950483</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1882898</v>
+        <v>1880643</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2027264</v>
+        <v>2013674</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2772962388924229</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2676878790845503</v>
+        <v>0.2673673068203591</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2882120073127539</v>
+        <v>0.2862799267661433</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2577605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2523051</v>
+        <v>2523312</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2629230</v>
+        <v>2629326</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7544785068694262</v>
+        <v>0.7544785068694263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7385104014651858</v>
+        <v>0.7385867157874706</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.769589546414276</v>
+        <v>0.7696175104175543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3417</v>
@@ -4808,19 +4808,19 @@
         <v>2505844</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2458846</v>
+        <v>2452781</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2549704</v>
+        <v>2550467</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6926955694511897</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6797037499726537</v>
+        <v>0.6780271655856474</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7048197226818612</v>
+        <v>0.7050306799692372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5806</v>
@@ -4829,19 +4829,19 @@
         <v>5083449</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5006668</v>
+        <v>5020258</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5151034</v>
+        <v>5153289</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7227037611075769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.711787992687246</v>
+        <v>0.7137200732338559</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7323121209154498</v>
+        <v>0.7326326931796407</v>
       </c>
     </row>
     <row r="15">
